--- a/Way2Automation/src/test/Resources/testdata/Suite.xlsx
+++ b/Way2Automation/src/test/Resources/testdata/Suite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenGrid/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/Desktop/SeleniumBootCamp/Way2Automation/src/test/Resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -386,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
